--- a/Data/4C_Master Excel Datasheet.xlsx
+++ b/Data/4C_Master Excel Datasheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="684" yWindow="456" windowWidth="28800" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="2004" yWindow="456" windowWidth="24300" windowHeight="16416" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="studinfo_w16" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="4C_pretest_w16" sheetId="3" r:id="rId4"/>
     <sheet name="4C_posttest_w16" sheetId="4" r:id="rId5"/>
     <sheet name="4C_pretest_w17" sheetId="6" r:id="rId6"/>
+    <sheet name="4C_posttest_w17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="444">
   <si>
     <t>W16 Solutions and Dilutions Reading Quiz (81682)</t>
   </si>
@@ -1847,10 +1848,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2209,7 +2212,7 @@
   <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5265,10 +5268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5276,7 +5279,7 @@
     <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -5292,22 +5295,20 @@
       <c r="E1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
       <c r="C2">
         <v>2017</v>
       </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -5325,7 +5326,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -5334,7 +5335,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -5343,7 +5344,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -5352,7 +5353,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -5361,7 +5362,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -5370,7 +5371,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -5379,7 +5380,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -5388,7 +5389,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -5397,7 +5398,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -5415,7 +5416,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -5424,7 +5425,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -55184,8 +55185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56522,6 +56523,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -56529,8 +56531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57874,8 +57876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="C398" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57921,7 +57923,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>442</v>
@@ -57991,7 +57993,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>1010</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>443</v>
@@ -58005,7 +58007,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>443</v>
@@ -58033,7 +58035,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>442</v>
@@ -58061,7 +58063,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>442</v>
@@ -58089,7 +58091,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>442</v>
@@ -58117,7 +58119,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>442</v>
@@ -58131,7 +58133,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>442</v>
@@ -58144,9 +58146,6 @@
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>442</v>
       </c>
@@ -58159,7 +58158,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>442</v>
@@ -58173,7 +58172,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>442</v>
@@ -58187,7 +58186,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>442</v>
@@ -58201,7 +58200,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>1110</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>443</v>
@@ -58229,7 +58228,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>443</v>
@@ -58243,7 +58242,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>442</v>
@@ -58285,7 +58284,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>1110</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>443</v>
@@ -58313,7 +58312,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>443</v>
@@ -58327,7 +58326,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>442</v>
@@ -58341,7 +58340,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>442</v>
@@ -58354,9 +58353,6 @@
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="C34" s="2">
-        <v>10</v>
-      </c>
       <c r="D34" s="2" t="s">
         <v>442</v>
       </c>
@@ -58369,7 +58365,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>443</v>
@@ -58411,7 +58407,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>442</v>
@@ -58439,7 +58435,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>442</v>
@@ -58453,7 +58449,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>443</v>
@@ -58467,7 +58463,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>443</v>
@@ -58481,7 +58477,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>443</v>
@@ -58495,7 +58491,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>443</v>
@@ -58509,7 +58505,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>443</v>
@@ -58537,7 +58533,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>443</v>
@@ -58565,7 +58561,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>443</v>
@@ -58579,7 +58575,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>443</v>
@@ -58606,9 +58602,6 @@
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
       <c r="D52" s="2" t="s">
         <v>443</v>
       </c>
@@ -58635,7 +58628,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>443</v>
@@ -58663,7 +58656,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>442</v>
@@ -58705,7 +58698,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>442</v>
@@ -58719,7 +58712,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>442</v>
@@ -58733,7 +58726,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>442</v>
@@ -58747,7 +58740,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>442</v>
@@ -58761,7 +58754,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>442</v>
@@ -58789,7 +58782,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>442</v>
@@ -58859,7 +58852,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="2">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>443</v>
@@ -58915,7 +58908,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>442</v>
@@ -58957,7 +58950,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="2">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>442</v>
@@ -58971,7 +58964,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>442</v>
@@ -58985,7 +58978,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="2">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>442</v>
@@ -58999,7 +58992,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="2">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>442</v>
@@ -59055,7 +59048,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>442</v>
@@ -59124,9 +59117,6 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="2">
-        <v>0</v>
-      </c>
       <c r="D89" s="2" t="s">
         <v>442</v>
       </c>
@@ -59152,9 +59142,6 @@
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
       <c r="D91" s="2" t="s">
         <v>442</v>
       </c>
@@ -59363,7 +59350,7 @@
         <v>3</v>
       </c>
       <c r="C106" s="2">
-        <v>1010</v>
+        <v>1111</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>442</v>
@@ -59377,7 +59364,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>442</v>
@@ -59405,7 +59392,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>442</v>
@@ -59447,7 +59434,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>442</v>
@@ -59461,7 +59448,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>442</v>
@@ -59475,7 +59462,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>442</v>
@@ -59488,9 +59475,6 @@
       <c r="B115">
         <v>3</v>
       </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
       <c r="D115" s="2" t="s">
         <v>442</v>
       </c>
@@ -59531,7 +59515,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="2">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>443</v>
@@ -59587,7 +59571,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>442</v>
@@ -59614,9 +59598,6 @@
       <c r="B124">
         <v>3</v>
       </c>
-      <c r="C124" s="2">
-        <v>0</v>
-      </c>
       <c r="D124" s="2" t="s">
         <v>442</v>
       </c>
@@ -59629,7 +59610,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>442</v>
@@ -59657,7 +59638,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>442</v>
@@ -59671,7 +59652,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>442</v>
@@ -59713,7 +59694,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>443</v>
@@ -59727,7 +59708,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>443</v>
@@ -59741,7 +59722,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>443</v>
@@ -59755,7 +59736,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>443</v>
@@ -59769,7 +59750,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>443</v>
@@ -59797,7 +59778,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>442</v>
@@ -59839,7 +59820,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>443</v>
@@ -59853,7 +59834,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>443</v>
@@ -59866,9 +59847,6 @@
       <c r="B142">
         <v>3</v>
       </c>
-      <c r="C142" s="2">
-        <v>0</v>
-      </c>
       <c r="D142" s="2" t="s">
         <v>443</v>
       </c>
@@ -59881,7 +59859,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>442</v>
@@ -59909,7 +59887,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="2">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>442</v>
@@ -59923,7 +59901,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>443</v>
@@ -60021,7 +59999,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="2">
-        <v>1010</v>
+        <v>100</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>443</v>
@@ -60034,9 +60012,6 @@
       <c r="B154">
         <v>3</v>
       </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
       <c r="D154" s="2" t="s">
         <v>443</v>
       </c>
@@ -60203,7 +60178,7 @@
         <v>3</v>
       </c>
       <c r="C166" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>442</v>
@@ -60231,7 +60206,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>442</v>
@@ -60273,7 +60248,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>442</v>
@@ -60287,7 +60262,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>442</v>
@@ -60301,7 +60276,7 @@
         <v>1</v>
       </c>
       <c r="C173" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>443</v>
@@ -60329,7 +60304,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>443</v>
@@ -60343,7 +60318,7 @@
         <v>1</v>
       </c>
       <c r="C176" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>442</v>
@@ -60356,9 +60331,6 @@
       <c r="B177">
         <v>2</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
       <c r="D177" s="2" t="s">
         <v>442</v>
       </c>
@@ -60371,7 +60343,7 @@
         <v>3</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>442</v>
@@ -60398,9 +60370,6 @@
       <c r="B180">
         <v>2</v>
       </c>
-      <c r="C180" s="2">
-        <v>10</v>
-      </c>
       <c r="D180" s="2" t="s">
         <v>443</v>
       </c>
@@ -60412,9 +60381,6 @@
       <c r="B181">
         <v>3</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
       <c r="D181" s="2" t="s">
         <v>443</v>
       </c>
@@ -60427,7 +60393,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>443</v>
@@ -60441,7 +60407,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>443</v>
@@ -60455,7 +60421,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>443</v>
@@ -60469,7 +60435,7 @@
         <v>1</v>
       </c>
       <c r="C185" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>443</v>
@@ -60497,7 +60463,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>443</v>
@@ -60511,7 +60477,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>443</v>
@@ -60539,7 +60505,7 @@
         <v>3</v>
       </c>
       <c r="C190" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>443</v>
@@ -60567,7 +60533,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="2">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>443</v>
@@ -60595,7 +60561,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>442</v>
@@ -60609,7 +60575,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>442</v>
@@ -60622,9 +60588,6 @@
       <c r="B196">
         <v>3</v>
       </c>
-      <c r="C196" s="2">
-        <v>0</v>
-      </c>
       <c r="D196" s="2" t="s">
         <v>442</v>
       </c>
@@ -60637,7 +60600,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>442</v>
@@ -60651,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>442</v>
@@ -60664,9 +60627,6 @@
       <c r="B199">
         <v>3</v>
       </c>
-      <c r="C199" s="2">
-        <v>0</v>
-      </c>
       <c r="D199" s="2" t="s">
         <v>442</v>
       </c>
@@ -60721,7 +60681,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>442</v>
@@ -60735,7 +60695,7 @@
         <v>2</v>
       </c>
       <c r="C204" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>442</v>
@@ -60748,9 +60708,6 @@
       <c r="B205">
         <v>3</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
       <c r="D205" s="2" t="s">
         <v>442</v>
       </c>
@@ -60763,7 +60720,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>442</v>
@@ -60777,7 +60734,7 @@
         <v>2</v>
       </c>
       <c r="C207" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>442</v>
@@ -60791,7 +60748,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>442</v>
@@ -60847,7 +60804,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="2">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>443</v>
@@ -60860,9 +60817,6 @@
       <c r="B213">
         <v>2</v>
       </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
       <c r="D213" s="2" t="s">
         <v>443</v>
       </c>
@@ -60875,7 +60829,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>443</v>
@@ -60889,7 +60843,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>443</v>
@@ -60903,7 +60857,7 @@
         <v>2</v>
       </c>
       <c r="C216" s="2">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>443</v>
@@ -60917,7 +60871,7 @@
         <v>3</v>
       </c>
       <c r="C217" s="2">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>443</v>
@@ -60931,7 +60885,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>442</v>
@@ -60945,7 +60899,7 @@
         <v>2</v>
       </c>
       <c r="C219" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>442</v>
@@ -60959,7 +60913,7 @@
         <v>3</v>
       </c>
       <c r="C220" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>442</v>
@@ -60973,7 +60927,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>442</v>
@@ -61001,7 +60955,7 @@
         <v>3</v>
       </c>
       <c r="C223" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>442</v>
@@ -61028,9 +60982,6 @@
       <c r="B225">
         <v>2</v>
       </c>
-      <c r="C225" s="2">
-        <v>0</v>
-      </c>
       <c r="D225" s="2" t="s">
         <v>442</v>
       </c>
@@ -61042,9 +60993,6 @@
       <c r="B226">
         <v>3</v>
       </c>
-      <c r="C226" s="2">
-        <v>0</v>
-      </c>
       <c r="D226" s="2" t="s">
         <v>442</v>
       </c>
@@ -61098,9 +61046,6 @@
       <c r="B230">
         <v>1</v>
       </c>
-      <c r="C230" s="2">
-        <v>0</v>
-      </c>
       <c r="D230" s="2" t="s">
         <v>442</v>
       </c>
@@ -61113,7 +61058,7 @@
         <v>2</v>
       </c>
       <c r="C231" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>442</v>
@@ -61127,7 +61072,7 @@
         <v>3</v>
       </c>
       <c r="C232" s="2">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>442</v>
@@ -61141,7 +61086,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>442</v>
@@ -61155,7 +61100,7 @@
         <v>2</v>
       </c>
       <c r="C234" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>442</v>
@@ -61168,9 +61113,6 @@
       <c r="B235">
         <v>3</v>
       </c>
-      <c r="C235" s="2">
-        <v>0</v>
-      </c>
       <c r="D235" s="2" t="s">
         <v>442</v>
       </c>
@@ -61183,7 +61125,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>442</v>
@@ -61197,7 +61139,7 @@
         <v>2</v>
       </c>
       <c r="C237" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>442</v>
@@ -61211,7 +61153,7 @@
         <v>3</v>
       </c>
       <c r="C238" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>442</v>
@@ -61239,7 +61181,7 @@
         <v>2</v>
       </c>
       <c r="C240" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>442</v>
@@ -61294,9 +61236,6 @@
       <c r="B244">
         <v>3</v>
       </c>
-      <c r="C244" s="2">
-        <v>0</v>
-      </c>
       <c r="D244" s="2" t="s">
         <v>442</v>
       </c>
@@ -61337,7 +61276,7 @@
         <v>3</v>
       </c>
       <c r="C247" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>442</v>
@@ -61351,7 +61290,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>442</v>
@@ -61448,9 +61387,6 @@
       <c r="B255">
         <v>2</v>
       </c>
-      <c r="C255" s="2">
-        <v>0</v>
-      </c>
       <c r="D255" s="2" t="s">
         <v>442</v>
       </c>
@@ -61477,7 +61413,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>442</v>
@@ -61491,7 +61427,7 @@
         <v>2</v>
       </c>
       <c r="C258" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>442</v>
@@ -61504,9 +61440,6 @@
       <c r="B259">
         <v>3</v>
       </c>
-      <c r="C259" s="2">
-        <v>0</v>
-      </c>
       <c r="D259" s="2" t="s">
         <v>442</v>
       </c>
@@ -61561,7 +61494,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>442</v>
@@ -61575,7 +61508,7 @@
         <v>2</v>
       </c>
       <c r="C264" s="2">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>442</v>
@@ -61617,7 +61550,7 @@
         <v>2</v>
       </c>
       <c r="C267" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>442</v>
@@ -61631,7 +61564,7 @@
         <v>3</v>
       </c>
       <c r="C268" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>442</v>
@@ -61645,7 +61578,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>442</v>
@@ -61659,7 +61592,7 @@
         <v>2</v>
       </c>
       <c r="C270" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>442</v>
@@ -61672,9 +61605,6 @@
       <c r="B271">
         <v>3</v>
       </c>
-      <c r="C271" s="2">
-        <v>0</v>
-      </c>
       <c r="D271" s="2" t="s">
         <v>442</v>
       </c>
@@ -61701,7 +61631,7 @@
         <v>2</v>
       </c>
       <c r="C273" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>443</v>
@@ -61715,7 +61645,7 @@
         <v>3</v>
       </c>
       <c r="C274" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>443</v>
@@ -61756,9 +61686,6 @@
       <c r="B277">
         <v>3</v>
       </c>
-      <c r="C277" s="2">
-        <v>0</v>
-      </c>
       <c r="D277" s="2" t="s">
         <v>442</v>
       </c>
@@ -61785,7 +61712,7 @@
         <v>2</v>
       </c>
       <c r="C279" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>442</v>
@@ -61841,7 +61768,7 @@
         <v>3</v>
       </c>
       <c r="C283" s="2">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>443</v>
@@ -61855,7 +61782,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>443</v>
@@ -61869,7 +61796,7 @@
         <v>2</v>
       </c>
       <c r="C285" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>443</v>
@@ -61883,7 +61810,7 @@
         <v>3</v>
       </c>
       <c r="C286" s="2">
-        <v>1010</v>
+        <v>110</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>443</v>
@@ -61897,7 +61824,7 @@
         <v>1</v>
       </c>
       <c r="C287" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>442</v>
@@ -61911,7 +61838,7 @@
         <v>2</v>
       </c>
       <c r="C288" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>442</v>
@@ -61924,9 +61851,6 @@
       <c r="B289">
         <v>3</v>
       </c>
-      <c r="C289" s="2">
-        <v>0</v>
-      </c>
       <c r="D289" s="2" t="s">
         <v>442</v>
       </c>
@@ -61939,7 +61863,7 @@
         <v>1</v>
       </c>
       <c r="C290" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>442</v>
@@ -61953,7 +61877,7 @@
         <v>2</v>
       </c>
       <c r="C291" s="2">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>442</v>
@@ -61966,9 +61890,6 @@
       <c r="B292">
         <v>3</v>
       </c>
-      <c r="C292" s="2">
-        <v>0</v>
-      </c>
       <c r="D292" s="2" t="s">
         <v>442</v>
       </c>
@@ -61981,7 +61902,7 @@
         <v>1</v>
       </c>
       <c r="C293" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>442</v>
@@ -61995,7 +61916,7 @@
         <v>2</v>
       </c>
       <c r="C294" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>442</v>
@@ -62023,7 +61944,7 @@
         <v>1</v>
       </c>
       <c r="C296" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>442</v>
@@ -62093,7 +62014,7 @@
         <v>3</v>
       </c>
       <c r="C301" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>442</v>
@@ -62121,7 +62042,7 @@
         <v>2</v>
       </c>
       <c r="C303" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>442</v>
@@ -62149,7 +62070,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>442</v>
@@ -62176,9 +62097,6 @@
       <c r="B307">
         <v>3</v>
       </c>
-      <c r="C307" s="2">
-        <v>0</v>
-      </c>
       <c r="D307" s="2" t="s">
         <v>442</v>
       </c>
@@ -62191,7 +62109,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>442</v>
@@ -62219,7 +62137,7 @@
         <v>3</v>
       </c>
       <c r="C310" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>442</v>
@@ -62233,7 +62151,7 @@
         <v>1</v>
       </c>
       <c r="C311" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>442</v>
@@ -62275,7 +62193,7 @@
         <v>1</v>
       </c>
       <c r="C314" s="2">
-        <v>1111</v>
+        <v>1010</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>443</v>
@@ -62317,7 +62235,7 @@
         <v>1</v>
       </c>
       <c r="C317" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>442</v>
@@ -62331,7 +62249,7 @@
         <v>2</v>
       </c>
       <c r="C318" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>442</v>
@@ -62345,7 +62263,7 @@
         <v>3</v>
       </c>
       <c r="C319" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>442</v>
@@ -62401,7 +62319,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="2">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>442</v>
@@ -62457,7 +62375,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>443</v>
@@ -62471,7 +62389,7 @@
         <v>3</v>
       </c>
       <c r="C328" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>443</v>
@@ -62485,7 +62403,7 @@
         <v>1</v>
       </c>
       <c r="C329" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>443</v>
@@ -62569,7 +62487,7 @@
         <v>1</v>
       </c>
       <c r="C335" s="2">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>442</v>
@@ -62583,7 +62501,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>442</v>
@@ -62625,7 +62543,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="2">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>443</v>
@@ -62639,7 +62557,7 @@
         <v>3</v>
       </c>
       <c r="C340" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>443</v>
@@ -62653,7 +62571,7 @@
         <v>1</v>
       </c>
       <c r="C341" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>442</v>
@@ -62667,7 +62585,7 @@
         <v>2</v>
       </c>
       <c r="C342" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>442</v>
@@ -62695,7 +62613,7 @@
         <v>1</v>
       </c>
       <c r="C344" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>443</v>
@@ -62709,7 +62627,7 @@
         <v>2</v>
       </c>
       <c r="C345" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>443</v>
@@ -62723,7 +62641,7 @@
         <v>3</v>
       </c>
       <c r="C346" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>443</v>
@@ -62751,7 +62669,7 @@
         <v>2</v>
       </c>
       <c r="C348" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>442</v>
@@ -62793,7 +62711,7 @@
         <v>2</v>
       </c>
       <c r="C351" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>443</v>
@@ -62807,7 +62725,7 @@
         <v>3</v>
       </c>
       <c r="C352" s="2">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>443</v>
@@ -62821,7 +62739,7 @@
         <v>1</v>
       </c>
       <c r="C353" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>443</v>
@@ -62849,7 +62767,7 @@
         <v>3</v>
       </c>
       <c r="C355" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>443</v>
@@ -62862,9 +62780,6 @@
       <c r="B356">
         <v>1</v>
       </c>
-      <c r="C356" s="2">
-        <v>110</v>
-      </c>
       <c r="D356" s="2" t="s">
         <v>442</v>
       </c>
@@ -62876,9 +62791,6 @@
       <c r="B357">
         <v>2</v>
       </c>
-      <c r="C357" s="2">
-        <v>0</v>
-      </c>
       <c r="D357" s="2" t="s">
         <v>442</v>
       </c>
@@ -62890,9 +62802,6 @@
       <c r="B358">
         <v>3</v>
       </c>
-      <c r="C358" s="2">
-        <v>0</v>
-      </c>
       <c r="D358" s="2" t="s">
         <v>442</v>
       </c>
@@ -62961,7 +62870,7 @@
         <v>2</v>
       </c>
       <c r="C363" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>443</v>
@@ -62989,7 +62898,7 @@
         <v>1</v>
       </c>
       <c r="C365" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>442</v>
@@ -63002,9 +62911,6 @@
       <c r="B366">
         <v>2</v>
       </c>
-      <c r="C366" s="2">
-        <v>0</v>
-      </c>
       <c r="D366" s="2" t="s">
         <v>442</v>
       </c>
@@ -63016,9 +62922,6 @@
       <c r="B367">
         <v>3</v>
       </c>
-      <c r="C367" s="2">
-        <v>0</v>
-      </c>
       <c r="D367" s="2" t="s">
         <v>442</v>
       </c>
@@ -63031,7 +62934,7 @@
         <v>1</v>
       </c>
       <c r="C368" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>442</v>
@@ -63045,7 +62948,7 @@
         <v>2</v>
       </c>
       <c r="C369" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>442</v>
@@ -63058,9 +62961,6 @@
       <c r="B370">
         <v>3</v>
       </c>
-      <c r="C370" s="2">
-        <v>0</v>
-      </c>
       <c r="D370" s="2" t="s">
         <v>442</v>
       </c>
@@ -63087,7 +62987,7 @@
         <v>2</v>
       </c>
       <c r="C372" s="2">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>443</v>
@@ -63101,7 +63001,7 @@
         <v>3</v>
       </c>
       <c r="C373" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>443</v>
@@ -63115,7 +63015,7 @@
         <v>1</v>
       </c>
       <c r="C374" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>442</v>
@@ -63129,7 +63029,7 @@
         <v>2</v>
       </c>
       <c r="C375" s="2">
-        <v>1010</v>
+        <v>100</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>442</v>
@@ -63157,7 +63057,7 @@
         <v>1</v>
       </c>
       <c r="C377" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>442</v>
@@ -63171,7 +63071,7 @@
         <v>2</v>
       </c>
       <c r="C378" s="2">
-        <v>1010</v>
+        <v>110</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>442</v>
@@ -63184,9 +63084,6 @@
       <c r="B379">
         <v>3</v>
       </c>
-      <c r="C379" s="2">
-        <v>0</v>
-      </c>
       <c r="D379" s="2" t="s">
         <v>442</v>
       </c>
@@ -63199,7 +63096,7 @@
         <v>1</v>
       </c>
       <c r="C380" s="2">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>443</v>
@@ -63213,7 +63110,7 @@
         <v>2</v>
       </c>
       <c r="C381" s="2">
-        <v>1010</v>
+        <v>10</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>443</v>
@@ -63227,7 +63124,7 @@
         <v>3</v>
       </c>
       <c r="C382" s="2">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>443</v>
@@ -63255,7 +63152,7 @@
         <v>2</v>
       </c>
       <c r="C384" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>442</v>
@@ -63269,7 +63166,7 @@
         <v>3</v>
       </c>
       <c r="C385" s="2">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>442</v>
@@ -63311,7 +63208,7 @@
         <v>3</v>
       </c>
       <c r="C388" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>442</v>
@@ -63325,7 +63222,7 @@
         <v>1</v>
       </c>
       <c r="C389" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>442</v>
@@ -63339,7 +63236,7 @@
         <v>2</v>
       </c>
       <c r="C390" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>442</v>
@@ -63367,7 +63264,7 @@
         <v>1</v>
       </c>
       <c r="C392" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>442</v>
@@ -63381,7 +63278,7 @@
         <v>2</v>
       </c>
       <c r="C393" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>442</v>
@@ -63395,7 +63292,7 @@
         <v>3</v>
       </c>
       <c r="C394" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>442</v>
@@ -63409,7 +63306,7 @@
         <v>1</v>
       </c>
       <c r="C395" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>442</v>
@@ -63423,7 +63320,7 @@
         <v>2</v>
       </c>
       <c r="C396" s="2">
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>442</v>
@@ -63437,7 +63334,7 @@
         <v>3</v>
       </c>
       <c r="C397" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>442</v>
@@ -63493,7 +63390,7 @@
         <v>1</v>
       </c>
       <c r="C401" s="2">
-        <v>1010</v>
+        <v>110</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>442</v>
@@ -63507,7 +63404,7 @@
         <v>2</v>
       </c>
       <c r="C402" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>442</v>
@@ -63521,7 +63418,7 @@
         <v>3</v>
       </c>
       <c r="C403" s="2">
-        <v>1110</v>
+        <v>100</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>442</v>
@@ -63535,7 +63432,7 @@
         <v>1</v>
       </c>
       <c r="C404" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>442</v>
@@ -63549,7 +63446,7 @@
         <v>2</v>
       </c>
       <c r="C405" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>442</v>
@@ -63562,9 +63459,6 @@
       <c r="B406">
         <v>3</v>
       </c>
-      <c r="C406" s="2">
-        <v>0</v>
-      </c>
       <c r="D406" s="2" t="s">
         <v>442</v>
       </c>
@@ -63577,7 +63471,7 @@
         <v>1</v>
       </c>
       <c r="C407" s="2">
-        <v>1000</v>
+        <v>1110</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>442</v>
@@ -63619,7 +63513,7 @@
         <v>1</v>
       </c>
       <c r="C410" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>442</v>
@@ -63661,7 +63555,7 @@
         <v>1</v>
       </c>
       <c r="C413" s="2">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>442</v>
@@ -63675,7 +63569,7 @@
         <v>2</v>
       </c>
       <c r="C414" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>442</v>
@@ -63703,7 +63597,7 @@
         <v>1</v>
       </c>
       <c r="C416" s="2">
-        <v>1110</v>
+        <v>110</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>442</v>
@@ -63730,9 +63624,6 @@
       <c r="B418">
         <v>3</v>
       </c>
-      <c r="C418" s="2">
-        <v>110</v>
-      </c>
       <c r="D418" s="2" t="s">
         <v>442</v>
       </c>
@@ -63745,7 +63636,7 @@
         <v>1</v>
       </c>
       <c r="C419" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>442</v>
@@ -63758,9 +63649,7 @@
       <c r="B420">
         <v>2</v>
       </c>
-      <c r="C420" s="2">
-        <v>0</v>
-      </c>
+      <c r="C420" s="4"/>
       <c r="D420" s="2" t="s">
         <v>442</v>
       </c>
@@ -63772,8 +63661,5825 @@
       <c r="B421">
         <v>3</v>
       </c>
-      <c r="C421" s="2">
-        <v>0</v>
+      <c r="C421" s="4"/>
+      <c r="D421" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D421"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>319</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>327</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>329</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>330</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>331</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>333</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>334</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>110</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>340</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>341</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>342</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>342</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>343</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>345</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="3">
+        <v>110</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3">
+        <v>110</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3">
+        <v>110</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>348</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>348</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>348</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>350</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>350</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>351</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>352</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>352</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>352</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>353</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>354</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>354</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>355</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>356</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>357</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>357</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>358</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>358</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>359</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>359</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>359</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>363</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>363</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>363</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>364</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>364</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>365</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>365</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>365</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>366</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>366</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>367</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>367</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>367</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>368</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>368</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>368</v>
+      </c>
+      <c r="B205">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>369</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>369</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>370</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>370</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>371</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>371</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>372</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>372</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>373</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>373</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>373</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>374</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>374</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>374</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>375</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>375</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>376</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>376</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>376</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>377</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>377</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>377</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>378</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" s="3">
+        <v>110</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>378</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>378</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>379</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>379</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>379</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>380</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>380</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>380</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>381</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>381</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>381</v>
+      </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
+      <c r="C244" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>382</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>382</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>382</v>
+      </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
+      <c r="C247" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>383</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" s="3">
+        <v>110</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>383</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>383</v>
+      </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>384</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>384</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>384</v>
+      </c>
+      <c r="B253">
+        <v>3</v>
+      </c>
+      <c r="C253" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>385</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>385</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>385</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>386</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>386</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>386</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>387</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>387</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>387</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>388</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>388</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>388</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>389</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>389</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>389</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>390</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>390</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>390</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>391</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>391</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>391</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>392</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>392</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>392</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>393</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>393</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>393</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>394</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>394</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>394</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>395</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>395</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>395</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>396</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>396</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>396</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>397</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>397</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>397</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>398</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>398</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>398</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>399</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>399</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>399</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>400</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>400</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" s="3">
+        <v>110</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>400</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>401</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>401</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>401</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>402</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>402</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>402</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>403</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>403</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>403</v>
+      </c>
+      <c r="B310">
+        <v>3</v>
+      </c>
+      <c r="C310" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>404</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>404</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>404</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>405</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>405</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>405</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>406</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>406</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>406</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>407</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>407</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>407</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>408</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>408</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+      <c r="C324" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>408</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>409</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>409</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>409</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>410</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>410</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>410</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>411</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>411</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>411</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>412</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>412</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336" s="3">
+        <v>110</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>412</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>413</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>413</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>413</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>414</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>414</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>414</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>415</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>415</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>415</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>416</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>416</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>416</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>417</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>417</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>417</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>418</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>418</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>418</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>419</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>419</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>419</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>420</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>420</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>420</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>421</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>421</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>421</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>422</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>422</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>422</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>423</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>423</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>423</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+      <c r="C370" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>424</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>424</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>424</v>
+      </c>
+      <c r="B373">
+        <v>3</v>
+      </c>
+      <c r="C373" s="3">
+        <v>1100</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>425</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>425</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="C375" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>425</v>
+      </c>
+      <c r="B376">
+        <v>3</v>
+      </c>
+      <c r="C376" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>426</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>426</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>426</v>
+      </c>
+      <c r="B379">
+        <v>3</v>
+      </c>
+      <c r="C379" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>427</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>427</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>427</v>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="C382" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>428</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>428</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>428</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="C385" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>429</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>429</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>429</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>430</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>430</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>430</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>431</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>431</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>431</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>432</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>432</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>432</v>
+      </c>
+      <c r="B397">
+        <v>3</v>
+      </c>
+      <c r="C397" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>433</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>433</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>433</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>434</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>434</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>434</v>
+      </c>
+      <c r="B403">
+        <v>3</v>
+      </c>
+      <c r="C403" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>435</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>435</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>435</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>436</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>436</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>436</v>
+      </c>
+      <c r="B409">
+        <v>3</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>437</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>437</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>437</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>438</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>438</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>438</v>
+      </c>
+      <c r="B415">
+        <v>3</v>
+      </c>
+      <c r="C415" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>439</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>439</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>439</v>
+      </c>
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>440</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419" s="3">
+        <v>1111</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>440</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420" s="3">
+        <v>1110</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>440</v>
+      </c>
+      <c r="B421">
+        <v>3</v>
+      </c>
+      <c r="C421" s="3">
+        <v>1110</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>442</v>
